--- a/natmiOut/OldD0/LR-pairs_lrc2p/Pf4-Thbd.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Pf4-Thbd.xlsx
@@ -528,16 +528,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H2">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.207210102707</v>
+        <v>20.19138166666667</v>
       </c>
       <c r="N2">
-        <v>17.207210102707</v>
+        <v>60.574145</v>
       </c>
       <c r="O2">
-        <v>0.2362081731823789</v>
+        <v>0.2647638724437206</v>
       </c>
       <c r="P2">
-        <v>0.2362081731823789</v>
+        <v>0.2647638724437206</v>
       </c>
       <c r="Q2">
-        <v>81.37853643314581</v>
+        <v>370.7023996521217</v>
       </c>
       <c r="R2">
-        <v>81.37853643314581</v>
+        <v>3336.321596869095</v>
       </c>
       <c r="S2">
-        <v>0.2362081731823789</v>
+        <v>0.2647638724437206</v>
       </c>
       <c r="T2">
-        <v>0.2362081731823789</v>
+        <v>0.2647638724437206</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,16 +590,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H3">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -608,34 +608,34 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>49.1596660605304</v>
+        <v>49.48831433333334</v>
       </c>
       <c r="N3">
-        <v>49.1596660605304</v>
+        <v>148.464943</v>
       </c>
       <c r="O3">
-        <v>0.6748284495338916</v>
+        <v>0.6489262577427425</v>
       </c>
       <c r="P3">
-        <v>0.6748284495338916</v>
+        <v>0.6489262577427425</v>
       </c>
       <c r="Q3">
-        <v>232.4921734359946</v>
+        <v>908.5775892390303</v>
       </c>
       <c r="R3">
-        <v>232.4921734359946</v>
+        <v>8177.198303151273</v>
       </c>
       <c r="S3">
-        <v>0.6748284495338916</v>
+        <v>0.6489262577427425</v>
       </c>
       <c r="T3">
-        <v>0.6748284495338916</v>
+        <v>0.6489262577427425</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,16 +652,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.72932776129371</v>
+        <v>18.359437</v>
       </c>
       <c r="H4">
-        <v>4.72932776129371</v>
+        <v>55.078311</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -670,34 +670,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.48077288665861</v>
+        <v>6.58215</v>
       </c>
       <c r="N4">
-        <v>6.48077288665861</v>
+        <v>19.74645</v>
       </c>
       <c r="O4">
-        <v>0.0889633772837294</v>
+        <v>0.08630986981353689</v>
       </c>
       <c r="P4">
-        <v>0.0889633772837294</v>
+        <v>0.0863098698135369</v>
       </c>
       <c r="Q4">
-        <v>30.64969912751414</v>
+        <v>120.84456824955</v>
       </c>
       <c r="R4">
-        <v>30.64969912751414</v>
+        <v>1087.60111424595</v>
       </c>
       <c r="S4">
-        <v>0.0889633772837294</v>
+        <v>0.08630986981353689</v>
       </c>
       <c r="T4">
-        <v>0.0889633772837294</v>
+        <v>0.0863098698135369</v>
       </c>
     </row>
   </sheetData>
